--- a/modeling/results/results_attr.xlsx
+++ b/modeling/results/results_attr.xlsx
@@ -49,16 +49,17 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(batch_size=64, early_stopping=True, max_iter=512)</t>
-  </si>
-  <si>
-    <t>MultinomialNB()</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8)</t>
-  </si>
-  <si>
-    <t>SVC(degree=1, max_iter=1024)</t>
+    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
+              random_state=42)</t>
+  </si>
+  <si>
+    <t>GaussianNB(var_smoothing=1e-06)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -453,13 +454,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7438524590163934</v>
+        <v>0.7480719794344473</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5441467697941187</v>
+        <v>0.5953078556263269</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -473,13 +474,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.5942622950819673</v>
+        <v>0.2699228791773779</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5287093942054434</v>
+        <v>0.2385166804521643</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -493,13 +494,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7315573770491803</v>
+        <v>0.7403598971722365</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.547966030985059</v>
+        <v>0.576430889312936</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -513,13 +514,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7397540983606558</v>
+        <v>0.7377892030848329</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4735974858793053</v>
+        <v>0.4758243500317058</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -533,13 +534,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7459016393442623</v>
+        <v>0.7429305912596401</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4272300469483568</v>
+        <v>0.4262536873156342</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr.xlsx
+++ b/modeling/results/results_attr.xlsx
@@ -49,17 +49,21 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
-  </si>
-  <si>
-    <t>GaussianNB(var_smoothing=1e-06)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
+    <t>MLPClassifier(activation='tanh', batch_size=32, early_stopping=True,
+              hidden_layer_sizes=(64, 64), learning_rate_init=0.1, max_iter=512,
+              random_state=42, solver='sgd')</t>
+  </si>
+  <si>
+    <t>GaussianNB(var_smoothing=1e-07)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(criterion='entropy', max_depth=32, max_features='sqrt',
+                       max_leaf_nodes=512, n_estimators=1024, n_jobs=8,
+                       random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(C=64, cache_size=64, coef0=0, decision_function_shape='ovo', degree=1,
+    gamma=0.01, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -454,13 +458,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.7480719794344473</v>
+        <v>0.731457800511509</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5953078556263269</v>
+        <v>0.540653635722837</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -474,13 +478,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.2699228791773779</v>
+        <v>0.2762148337595908</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2385166804521643</v>
+        <v>0.2477957921212739</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -494,13 +498,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7403598971722365</v>
+        <v>0.7365728900255755</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.576430889312936</v>
+        <v>0.5442426300005658</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -514,13 +518,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7377892030848329</v>
+        <v>0.6777493606138107</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4758243500317058</v>
+        <v>0.5453488372093023</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -534,13 +538,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7429305912596401</v>
+        <v>0.7442455242966752</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4262536873156342</v>
+        <v>0.4266862170087977</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr.xlsx
+++ b/modeling/results/results_attr.xlsx
@@ -49,21 +49,17 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(activation='tanh', batch_size=32, early_stopping=True,
-              hidden_layer_sizes=(64, 64), learning_rate_init=0.1, max_iter=512,
-              random_state=42, solver='sgd')</t>
-  </si>
-  <si>
-    <t>GaussianNB(var_smoothing=1e-07)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(criterion='entropy', max_depth=32, max_features='sqrt',
-                       max_leaf_nodes=512, n_estimators=1024, n_jobs=8,
-                       random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(C=64, cache_size=64, coef0=0, decision_function_shape='ovo', degree=1,
-    gamma=0.01, max_iter=1024, random_state=42)</t>
+    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
+              random_state=42)</t>
+  </si>
+  <si>
+    <t>GaussianNB(var_smoothing=1e-06)</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
+  </si>
+  <si>
+    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
   </si>
   <si>
     <t>Majority</t>
@@ -458,13 +454,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.731457800511509</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.540653635722837</v>
+        <v>0.5326878834355828</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -478,13 +474,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.2762148337595908</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2477957921212739</v>
+        <v>0.2451612903225807</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -498,13 +494,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7365728900255755</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5442426300005658</v>
+        <v>0.5454999500549396</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -518,13 +514,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.6777493606138107</v>
+        <v>0.7358974358974359</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5453488372093023</v>
+        <v>0.4421685575814806</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -538,13 +534,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0.7442455242966752</v>
+        <v>0.7410256410256411</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4266862170087977</v>
+        <v>0.4256259204712813</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr.xlsx
+++ b/modeling/results/results_attr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Std F1</t>
   </si>
   <si>
+    <t>Conf Matrix</t>
+  </si>
+  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -49,20 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>MLPClassifier(early_stopping=True, learning_rate_init=0.01, max_iter=512,
-              random_state=42)</t>
-  </si>
-  <si>
-    <t>GaussianNB(var_smoothing=1e-06)</t>
-  </si>
-  <si>
-    <t>RandomForestClassifier(max_features='sqrt', n_jobs=8, random_state=42)</t>
-  </si>
-  <si>
-    <t>SVC(cache_size=64, max_iter=1024, random_state=42)</t>
+    <t>{'learning_rate_init': 0.01}</t>
+  </si>
+  <si>
+    <t>{'var_smoothing': 1e-06}</t>
+  </si>
+  <si>
+    <t>{'max_features': 'sqrt'}</t>
+  </si>
+  <si>
+    <t>{'decision_function_shape': 'ovo'}</t>
   </si>
   <si>
     <t>Majority</t>
+  </si>
+  <si>
+    <t>[array([[248,  43],
+       [ 72,  27]])]</t>
+  </si>
+  <si>
+    <t>[array([[ 17, 274],
+       [  5,  94]])]</t>
+  </si>
+  <si>
+    <t>[array([[262,  29],
+       [ 77,  22]])]</t>
+  </si>
+  <si>
+    <t>[array([[288,   3],
+       [ 96,   3]])]</t>
+  </si>
+  <si>
+    <t>[array([[291,   0],
+       [ 99,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -420,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,105 +467,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0.7051282051282052</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.565655293969533</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.2846153846153846</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.2555978956154094</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.7282051282051282</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.5625396825396826</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.7461538461538462</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.4552380952380953</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.5326878834355828</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.2769230769230769</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2451612903225807</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.5454999500549396</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>0.7358974358974359</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.4421685575814806</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7410256410256411</v>
+        <v>0.7461538461538462</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4256259204712813</v>
+        <v>0.4273127753303965</v>
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/modeling/results/results_attr.xlsx
+++ b/modeling/results/results_attr.xlsx
@@ -52,39 +52,39 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'learning_rate_init': 0.01}</t>
+    <t>{'activation': 'tanh', 'batch_size': 128, 'hidden_layer_sizes': (64, 64), 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'solver': 'adam'}</t>
   </si>
   <si>
     <t>{'var_smoothing': 1e-06}</t>
   </si>
   <si>
-    <t>{'max_features': 'sqrt'}</t>
-  </si>
-  <si>
-    <t>{'decision_function_shape': 'ovo'}</t>
+    <t>{'criterion': 'gini', 'max_depth': 32, 'max_features': 'sqrt', 'max_leaf_nodes': 256, 'n_estimators': 64}</t>
+  </si>
+  <si>
+    <t>{'C': 64, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
   </si>
   <si>
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[248,  43],
-       [ 72,  27]])]</t>
-  </si>
-  <si>
-    <t>[array([[ 17, 274],
-       [  5,  94]])]</t>
-  </si>
-  <si>
-    <t>[array([[262,  29],
-       [ 77,  22]])]</t>
-  </si>
-  <si>
-    <t>[array([[288,   3],
-       [ 96,   3]])]</t>
-  </si>
-  <si>
-    <t>[array([[291,   0],
-       [ 99,   0]])]</t>
+    <t>[array([[260,  29],
+       [ 77,  23]])]</t>
+  </si>
+  <si>
+    <t>[array([[ 15, 274],
+       [  8,  92]])]</t>
+  </si>
+  <si>
+    <t>[array([[262,  27],
+       [ 81,  19]])]</t>
+  </si>
+  <si>
+    <t>[array([[261,  28],
+       [ 81,  19]])]</t>
+  </si>
+  <si>
+    <t>[array([[289,   0],
+       [100,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7051282051282052</v>
+        <v>0.7275064267352185</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.565655293969533</v>
+        <v>0.5666512527324702</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.2846153846153846</v>
+        <v>0.2750642673521851</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2555978956154094</v>
+        <v>0.2455018157807857</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7282051282051282</v>
+        <v>0.7223650385604113</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5625396825396826</v>
+        <v>0.5446939483266863</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7461538461538462</v>
+        <v>0.7197943444730077</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4552380952380953</v>
+        <v>0.5428808607436636</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7461538461538462</v>
+        <v>0.7429305912596401</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4273127753303965</v>
+        <v>0.4262536873156342</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/modeling/results/results_attr.xlsx
+++ b/modeling/results/results_attr.xlsx
@@ -52,13 +52,13 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>{'activation': 'tanh', 'batch_size': 128, 'hidden_layer_sizes': (64, 64), 'learning_rate': 'constant', 'learning_rate_init': 0.01, 'solver': 'adam'}</t>
-  </si>
-  <si>
-    <t>{'var_smoothing': 1e-06}</t>
-  </si>
-  <si>
-    <t>{'criterion': 'gini', 'max_depth': 32, 'max_features': 'sqrt', 'max_leaf_nodes': 256, 'n_estimators': 64}</t>
+    <t>{'activation': 'relu', 'batch_size': 32, 'hidden_layer_sizes': (64, 64, 64, 64), 'learning_rate': 'adaptive', 'learning_rate_init': 0.2, 'solver': 'sgd'}</t>
+  </si>
+  <si>
+    <t>{'var_smoothing': 1e-07}</t>
+  </si>
+  <si>
+    <t>{'criterion': 'gini', 'max_depth': 32, 'max_features': 'sqrt', 'max_leaf_nodes': 512, 'n_estimators': 64}</t>
   </si>
   <si>
     <t>{'C': 64, 'cache_size': 32, 'coef0': 0, 'decision_function_shape': 'ovo', 'degree': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
@@ -67,24 +67,24 @@
     <t>Majority</t>
   </si>
   <si>
-    <t>[array([[260,  29],
-       [ 77,  23]])]</t>
-  </si>
-  <si>
-    <t>[array([[ 15, 274],
-       [  8,  92]])]</t>
-  </si>
-  <si>
-    <t>[array([[262,  27],
-       [ 81,  19]])]</t>
-  </si>
-  <si>
-    <t>[array([[261,  28],
-       [ 81,  19]])]</t>
-  </si>
-  <si>
-    <t>[array([[289,   0],
-       [100,   0]])]</t>
+    <t>[array([[276,  14],
+       [ 92,  10]])]</t>
+  </si>
+  <si>
+    <t>[array([[ 12, 278],
+       [  7,  95]])]</t>
+  </si>
+  <si>
+    <t>[array([[244,  46],
+       [ 69,  33]])]</t>
+  </si>
+  <si>
+    <t>[array([[257,  33],
+       [ 76,  26]])]</t>
+  </si>
+  <si>
+    <t>[array([[290,   0],
+       [102,   0]])]</t>
   </si>
 </sst>
 </file>
@@ -479,13 +479,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.7275064267352185</v>
+        <v>0.7295918367346939</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5666512527324702</v>
+        <v>0.4988179669030732</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.2750642673521851</v>
+        <v>0.2729591836734694</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2455018157807857</v>
+        <v>0.2388349514563107</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.7223650385604113</v>
+        <v>0.7066326530612245</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5446939483266863</v>
+        <v>0.5869638914085191</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>0.7197943444730077</v>
+        <v>0.7219387755102041</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5428808607436636</v>
+        <v>0.5740107474352711</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.7429305912596401</v>
+        <v>0.7397959183673469</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4262536873156342</v>
+        <v>0.4252199413489736</v>
       </c>
       <c r="F6">
         <v>0</v>
